--- a/src/testData/fileFromMyLearning.xlsx
+++ b/src/testData/fileFromMyLearning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nflet\Desktop\project_elevate\src\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E8FD48-3260-4F5F-9973-E3967A28254F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE240B4-CF78-4CB4-8B6C-6ACF07E07C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7F953F6D-6108-48DF-84B0-019CDD11384F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>Edipi</t>
   </si>
@@ -159,16 +159,33 @@
   </si>
   <si>
     <t>12//2024</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Fletcher</t>
+  </si>
+  <si>
+    <t>n@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,14 +208,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -534,7 +554,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,13 +603,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>100</v>
+        <v>1001</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H2" t="s">
         <v>31</v>
@@ -876,12 +899,30 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{24662A09-6E31-48D9-9A0A-016F2EC067D6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A6C448555B60D245BACA53F541ADD17D" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e01543e37ea099b4e9603609b3edf859">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8c8c6209-72c8-45fa-aca9-7868482c6424" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8c559cc199a8b54f60e73a8281a969e9" ns3:_="">
     <xsd:import namespace="8c8c6209-72c8-45fa-aca9-7868482c6424"/>
@@ -1031,22 +1072,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA46875F-3AE0-4B34-80AA-D372034A6B40}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8c8c6209-72c8-45fa-aca9-7868482c6424"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B27BDAE7-4200-4291-BCAA-D75E9CAAE1D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F8454C2-E360-4585-BADB-CE61BB28CCB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1062,28 +1112,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B27BDAE7-4200-4291-BCAA-D75E9CAAE1D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA46875F-3AE0-4B34-80AA-D372034A6B40}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8c8c6209-72c8-45fa-aca9-7868482c6424"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/testData/fileFromMyLearning.xlsx
+++ b/src/testData/fileFromMyLearning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nflet\Desktop\project_elevate\src\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE240B4-CF78-4CB4-8B6C-6ACF07E07C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DE0D16-3518-4902-AC7D-20860D14E1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7F953F6D-6108-48DF-84B0-019CDD11384F}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,7 +603,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1001</v>
+        <v>4453245321</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
@@ -908,21 +908,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A6C448555B60D245BACA53F541ADD17D" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e01543e37ea099b4e9603609b3edf859">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8c8c6209-72c8-45fa-aca9-7868482c6424" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8c559cc199a8b54f60e73a8281a969e9" ns3:_="">
     <xsd:import namespace="8c8c6209-72c8-45fa-aca9-7868482c6424"/>
@@ -1072,31 +1057,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA46875F-3AE0-4B34-80AA-D372034A6B40}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8c8c6209-72c8-45fa-aca9-7868482c6424"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B27BDAE7-4200-4291-BCAA-D75E9CAAE1D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F8454C2-E360-4585-BADB-CE61BB28CCB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1112,4 +1088,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B27BDAE7-4200-4291-BCAA-D75E9CAAE1D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA46875F-3AE0-4B34-80AA-D372034A6B40}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8c8c6209-72c8-45fa-aca9-7868482c6424"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>